--- a/10 класс/СР вычисления.xlsx
+++ b/10 класс/СР вычисления.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\10 класс\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Базовый" sheetId="1" r:id="rId1"/>
     <sheet name="Продвинутый" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,9 +93,6 @@
     <t>Эфективный продавец из трех</t>
   </si>
   <si>
-    <t>генерация случайной суммы - слчис()*10000 + отформатировать</t>
-  </si>
-  <si>
     <t>Сидоров</t>
   </si>
   <si>
@@ -151,12 +148,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>генерация случайной суммы - до 10000р + отформатировать для всех рабочих дней</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -280,19 +280,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -740,50 +740,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="D4" t="str">
         <f>E8</f>
         <v>ОКРУГЛ(Y;4)</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="D5" t="str">
         <f>F8</f>
         <v>ОКРУГЛВВЕРХ(Y;3)</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="13"/>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="D6" t="str">
         <f>G8</f>
         <v>ОКРУГЛВНИЗ(Y;2)</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="D7" t="str">
         <f>H8</f>
         <v>ЦЕЛОЕ(Y)</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
@@ -805,13 +805,13 @@
         <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>6645</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>3489</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>6388</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>3651</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>8465</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>7726</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>7776</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>7135</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>1880</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="8"/>
@@ -1188,7 +1188,7 @@
         <v>9573</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="8"/>
@@ -1218,7 +1218,7 @@
         <v>3630</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="8"/>
@@ -1248,7 +1248,7 @@
         <v>1604</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="8"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,140 +1282,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="L3" s="14">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="L3" s="13">
         <v>4</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="D4" s="9">
         <v>43873</v>
       </c>
       <c r="E4" s="10">
         <f ca="1">RAND()*10000</f>
-        <v>3205.8436549883331</v>
+        <v>1835.6887106303677</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="13"/>
       <c r="O4" s="9">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="S4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="D5" s="9">
         <v>43874</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E23" ca="1" si="0">RAND()*10000</f>
-        <v>6639.9757821122548</v>
+        <v>9502.471259685326</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="13"/>
       <c r="O5" s="9">
-        <v>43890</v>
+        <v>43897</v>
       </c>
       <c r="P5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="D6" s="9">
         <v>43875</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>884.48620803043605</v>
+        <v>6415.552259204248</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="13"/>
       <c r="O6" s="9">
-        <v>43891</v>
+        <v>43898</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="D7" s="9">
         <v>43876</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3252.8113061806807</v>
+        <v>8148.5549602512665</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="13"/>
       <c r="O7" s="9">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="D8" s="9">
         <v>43877</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6943.8325518783959</v>
+        <v>469.53726339271861</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="13"/>
       <c r="O8" s="9">
-        <v>43893</v>
+        <v>43900</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D9" s="9">
@@ -1423,13 +1423,13 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4804.9607431913591</v>
+        <v>5826.7195699673421</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O9" s="9">
-        <v>43894</v>
+        <v>43901</v>
       </c>
       <c r="P9" t="s">
         <v>19</v>
@@ -1441,13 +1441,13 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6413.6144096678008</v>
+        <v>2544.3261247354885</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="9">
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
@@ -1459,13 +1459,13 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>8834.5936775995215</v>
+        <v>4350.815636604676</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O11" s="9">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="P11" t="s">
         <v>18</v>
@@ -1477,16 +1477,16 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6722.7689075955277</v>
+        <v>1151.8472486606213</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="9">
-        <v>43897</v>
+        <v>43904</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -1495,16 +1495,16 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6309.2293826706455</v>
+        <v>2580.0902800728009</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O13" s="9">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -1513,13 +1513,13 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4295.393394448156</v>
+        <v>1212.3116720998639</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="9">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="P14" t="s">
         <v>19</v>
@@ -1531,13 +1531,13 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>27.719628762515882</v>
+        <v>751.98902299971951</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="9">
-        <v>43900</v>
+        <v>43907</v>
       </c>
       <c r="P15" t="s">
         <v>18</v>
@@ -1549,13 +1549,13 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>483.75132034557345</v>
+        <v>3673.9096940616409</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O16" s="9">
-        <v>43901</v>
+        <v>43908</v>
       </c>
       <c r="P16" t="s">
         <v>19</v>
@@ -1567,16 +1567,16 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>820.71946395640862</v>
+        <v>7006.1584949127227</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="9">
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
@@ -1585,16 +1585,16 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3829.2222785750905</v>
+        <v>8018.3089518371262</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="9">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
@@ -1603,13 +1603,13 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>8446.1856347342637</v>
+        <v>441.06204734934539</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O19" s="9">
-        <v>43904</v>
+        <v>43911</v>
       </c>
       <c r="P19" t="s">
         <v>19</v>
@@ -1621,16 +1621,16 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>9051.9046913949696</v>
+        <v>2507.788169047561</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="9">
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5333.573462078195</v>
+        <v>3802.3201844760015</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O21" s="9">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="P21" t="s">
         <v>19</v>
@@ -1657,16 +1657,16 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4738.8729522078111</v>
+        <v>3186.1419090603058</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O22" s="9">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
@@ -1675,44 +1675,44 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6629.2278420911634</v>
+        <v>5623.701104362839</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O23" s="9">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="P23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="16"/>
-      <c r="G24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="O24" s="9">
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="P24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/10 класс/СР вычисления.xlsx
+++ b/10 класс/СР вычисления.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Анисимов Николай</t>
   </si>
@@ -150,7 +150,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>генерация случайной суммы - до 10000р + отформатировать для всех рабочих дней</t>
+    <t xml:space="preserve">В магазине по дням работают 2 продавца. В указанной ячейке вывести фамилию продавца продавшего на большую общую сумму. </t>
+  </si>
+  <si>
+    <t>Все вычисления должны быть произведены в одной ячейке без промежуточных вычислений.</t>
+  </si>
+  <si>
+    <t>То же самое, что и в задаче 3 только продавцов 3. Предварительно нужно сгенерировать суммы ежедневных продаж в дипазоне до 10000 р</t>
+  </si>
+  <si>
+    <t>генерация случайного числа - до 10000 + отформатировать для всех рабочих дней</t>
+  </si>
+  <si>
+    <t>Логические функции и условное суммирование</t>
+  </si>
+  <si>
+    <t>выполните задания при помощи функций ЕСЛИ() и СУММЕСЛИ()</t>
   </si>
 </sst>
 </file>
@@ -163,7 +178,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +215,22 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -259,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,8 +312,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,13 +355,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -363,13 +402,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -410,13 +449,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -740,10 +779,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="16">
         <v>2</v>
       </c>
       <c r="L3" t="s">
@@ -751,39 +790,39 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="D4" t="str">
         <f>E8</f>
         <v>ОКРУГЛ(Y;4)</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="D5" t="str">
         <f>F8</f>
         <v>ОКРУГЛВВЕРХ(Y;3)</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="16"/>
       <c r="L5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="D6" t="str">
         <f>G8</f>
         <v>ОКРУГЛВНИЗ(Y;2)</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="D7" t="str">
         <f>H8</f>
         <v>ЦЕЛОЕ(Y)</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
@@ -1266,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U25"/>
+  <dimension ref="B1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:F33"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,191 +1320,184 @@
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="13">
+    <row r="1" spans="2:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="L3" s="13">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="L4" s="16">
         <v>4</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="D4" s="9">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="D5" s="9">
         <v>43873</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="10">
         <f ca="1">RAND()*10000</f>
-        <v>1835.6887106303677</v>
-      </c>
-      <c r="F4" s="11" t="s">
+        <v>8920.7760850940322</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="O4" s="9">
+      <c r="L5" s="16"/>
+      <c r="O5" s="9">
         <v>43896</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="D5" s="9">
+      <c r="S5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="D6" s="9">
         <v>43874</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" ref="E5:E23" ca="1" si="0">RAND()*10000</f>
-        <v>9502.471259685326</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E24" ca="1" si="0">RAND()*10000</f>
+        <v>2790.6248126512501</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="O5" s="9">
+      <c r="L6" s="16"/>
+      <c r="O6" s="9">
         <v>43897</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="D6" s="9">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="D7" s="9">
         <v>43875</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6415.552259204248</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="O6" s="9">
-        <v>43898</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="D7" s="9">
-        <v>43876</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>8148.5549602512665</v>
+        <v>4031.3605443080401</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="L7" s="16"/>
       <c r="O7" s="9">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="D8" s="9">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>469.53726339271861</v>
+        <v>3305.7652074711218</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="16"/>
       <c r="O8" s="9">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
       <c r="D9" s="9">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5826.7195699673421</v>
+        <v>2417.1642937116467</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="L9" s="16"/>
       <c r="O9" s="9">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D10" s="9">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2544.3261247354885</v>
+        <v>3098.9172883463502</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O10" s="9">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="P10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4350.815636604676</v>
+        <v>9642.9365638649851</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="9">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="P11" t="s">
         <v>18</v>
@@ -1473,35 +1505,35 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D12" s="9">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1151.8472486606213</v>
+        <v>3856.3422722667528</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="9">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D13" s="9">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2580.0902800728009</v>
+        <v>4013.8429105949203</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O13" s="9">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="P13" t="s">
         <v>22</v>
@@ -1509,221 +1541,335 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D14" s="9">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1212.3116720998639</v>
+        <v>4500.6901036747386</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="9">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D15" s="9">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>751.98902299971951</v>
+        <v>7980.5087826280396</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="9">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="P15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D16" s="9">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3673.9096940616409</v>
+        <v>1633.2864105355727</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O16" s="9">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" s="9">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>7006.1584949127227</v>
+        <v>1136.59031070641</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9">
+        <v>43908</v>
+      </c>
+      <c r="P17" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="9">
-        <v>43909</v>
-      </c>
-      <c r="P17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" s="9">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>8018.3089518371262</v>
+        <v>9622.4661592152697</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="9">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="P18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" s="9">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>441.06204734934539</v>
+        <v>324.74400766992261</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O19" s="9">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" s="9">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2507.788169047561</v>
+        <v>6697.440840868725</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="9">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" s="9">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3802.3201844760015</v>
+        <v>285.71602209060188</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21" s="9">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D22" s="9">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3186.1419090603058</v>
+        <v>6825.5983460508742</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O22" s="9">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" s="9">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5623.701104362839</v>
+        <v>4213.893992612122</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="9">
+        <v>43914</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <v>43892</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6083.3468917160026</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O24" s="9">
         <v>43915</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="12"/>
-      <c r="G24" s="16" t="s">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+      <c r="G25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="O24" s="9">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="O25" s="9">
         <v>43916</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="15"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="O35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="S4:U8"/>
-    <mergeCell ref="G24:M25"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="L3:L8"/>
+  <mergeCells count="10">
+    <mergeCell ref="S5:U9"/>
+    <mergeCell ref="G25:M26"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="D29:F34"/>
+    <mergeCell ref="D35:F38"/>
+    <mergeCell ref="O28:Q33"/>
+    <mergeCell ref="O35:Q38"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>